--- a/mapping_spreadsheet/Casrec_Mapping_Document_Visits.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Visits.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farzanfatemifar/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farzanfatemifar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="68900" yWindow="3640" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31160" windowHeight="27340" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="150">
   <si>
     <t>mapping_file_name</t>
   </si>
@@ -196,6 +196,9 @@
     <t>visitreportmarkedas</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>visit_marked_lookup</t>
   </si>
   <si>
@@ -274,37 +277,19 @@
     <t>Supervision</t>
   </si>
   <si>
-    <t>Supervision - Pro Visit</t>
-  </si>
-  <si>
     <t>Court</t>
-  </si>
-  <si>
-    <t>Supervision - Lay Visit</t>
   </si>
   <si>
     <t>IU</t>
   </si>
   <si>
-    <t>Supervision- PA Visit</t>
-  </si>
-  <si>
     <t>Public Guardian</t>
-  </si>
-  <si>
-    <t>Supervision - Health and welfare</t>
   </si>
   <si>
     <t>Short Term Casework</t>
   </si>
   <si>
-    <t>Supervision - Medical</t>
-  </si>
-  <si>
     <t>Compliance</t>
-  </si>
-  <si>
-    <t>Assurance - Medical</t>
   </si>
   <si>
     <t>Recovery and Resolution</t>
@@ -313,43 +298,22 @@
     <t>Pro Assurance</t>
   </si>
   <si>
-    <t>Assurance -Client Pro</t>
-  </si>
-  <si>
     <t>LA Assurance</t>
-  </si>
-  <si>
-    <t>Assurance - Client PA</t>
   </si>
   <si>
     <t>Panel Assurance</t>
   </si>
   <si>
-    <t>Invesitigation - Deputyship</t>
-  </si>
-  <si>
     <t>Deputy PA Assurance</t>
-  </si>
-  <si>
-    <t>Invesitigation - LPA</t>
   </si>
   <si>
     <t>Deputy Pro Assurance</t>
   </si>
   <si>
-    <t>Invesitigation - Medical LPA</t>
-  </si>
-  <si>
     <t>Deputy Panel Assurance</t>
   </si>
   <si>
-    <t>Invesitigation - Medical Deputyship</t>
-  </si>
-  <si>
     <t>Pro Team Section 58</t>
-  </si>
-  <si>
-    <t>Assurance - Pro Team Section 58</t>
   </si>
   <si>
     <t>D</t>
@@ -385,13 +349,7 @@
     <t>Finance</t>
   </si>
   <si>
-    <t>Lay visit</t>
-  </si>
-  <si>
     <t>Health &amp; Welfare</t>
-  </si>
-  <si>
-    <t>Health and Welfare</t>
   </si>
   <si>
     <t>Medical</t>
@@ -487,7 +445,43 @@
     <t>AMBER</t>
   </si>
   <si>
-    <t>Categ</t>
+    <t>VST-PRO</t>
+  </si>
+  <si>
+    <t>VST-PA</t>
+  </si>
+  <si>
+    <t>VST-LAY</t>
+  </si>
+  <si>
+    <t>VST-HW</t>
+  </si>
+  <si>
+    <t>VST-MED</t>
+  </si>
+  <si>
+    <t>VST-S58</t>
+  </si>
+  <si>
+    <t>VST-CPRO</t>
+  </si>
+  <si>
+    <t>VST-CPA</t>
+  </si>
+  <si>
+    <t>VST-MDEP</t>
+  </si>
+  <si>
+    <t>VST-MLPA</t>
+  </si>
+  <si>
+    <t>VST-LPA</t>
+  </si>
+  <si>
+    <t>VST-DEP</t>
+  </si>
+  <si>
+    <t>VT-SUP</t>
   </si>
 </sst>
 </file>
@@ -1935,9 +1929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2283,12 +2277,12 @@
       <c r="H11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="30" t="s">
-        <v>151</v>
+      <c r="J11" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>31</v>
@@ -2303,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>40</v>
@@ -2315,7 +2309,7 @@
         <v>36</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -2331,7 +2325,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>35</v>
@@ -2355,7 +2349,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>35</v>
@@ -2367,11 +2361,11 @@
         <v>36</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>31</v>
@@ -2386,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>40</v>
@@ -2398,7 +2392,7 @@
         <v>36</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -2414,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>40</v>
@@ -2426,7 +2420,7 @@
         <v>36</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -2442,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>40</v>
@@ -2454,7 +2448,7 @@
         <v>36</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -2470,7 +2464,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>35</v>
@@ -2482,11 +2476,11 @@
         <v>36</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>31</v>
@@ -2501,7 +2495,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>35</v>
@@ -2526,7 +2520,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>35</v>
@@ -2538,11 +2532,11 @@
         <v>36</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>31</v>
@@ -4013,7 +4007,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>8</v>
@@ -4030,13 +4024,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>35</v>
@@ -5489,27 +5483,30 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="6" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -5540,12 +5537,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="19"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -5566,7 +5563,7 @@
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -5576,10 +5573,10 @@
       <c r="C3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>82</v>
+      <c r="D3" t="s">
+        <v>139</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -5600,7 +5597,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="14"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -5608,12 +5605,12 @@
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>84</v>
+      <c r="D4" t="s">
+        <v>138</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -5634,7 +5631,7 @@
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -5642,12 +5639,12 @@
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>86</v>
+      <c r="D5" t="s">
+        <v>140</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -5668,7 +5665,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -5676,12 +5673,12 @@
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>88</v>
+      <c r="D6" t="s">
+        <v>141</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -5702,7 +5699,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="14"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -5710,12 +5707,12 @@
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>90</v>
+      <c r="D7" t="s">
+        <v>141</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -5744,10 +5741,9 @@
         <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -5768,7 +5764,7 @@
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -5776,12 +5772,12 @@
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>93</v>
+      <c r="D9" t="s">
+        <v>143</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -5810,12 +5806,12 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>95</v>
+      <c r="D10" t="s">
+        <v>144</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -5844,12 +5840,12 @@
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>97</v>
+      <c r="D11" t="s">
+        <v>148</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -5878,12 +5874,12 @@
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>99</v>
+      <c r="D12" t="s">
+        <v>147</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -5912,12 +5908,12 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>101</v>
+      <c r="D13" t="s">
+        <v>146</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -5946,12 +5942,12 @@
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>103</v>
+      <c r="D14" t="s">
+        <v>145</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -5980,12 +5976,12 @@
         <v>8</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>105</v>
+      <c r="D15" t="s">
+        <v>142</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -12138,16 +12134,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -12172,16 +12168,16 @@
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -12206,16 +12202,16 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="14"/>
@@ -12240,16 +12236,16 @@
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="14"/>
@@ -12274,16 +12270,16 @@
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="14"/>
@@ -18679,7 +18675,9 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -18688,16 +18686,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -18728,10 +18726,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>117</v>
+      <c r="D2" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -18762,10 +18760,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="14"/>
@@ -18796,10 +18794,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="14"/>
@@ -25227,16 +25225,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -25267,10 +25265,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -25301,10 +25299,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="14"/>
@@ -25335,10 +25333,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="14"/>
@@ -25369,10 +25367,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="14"/>
@@ -25403,10 +25401,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="14"/>
@@ -25437,10 +25435,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="14"/>
@@ -25471,10 +25469,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="14"/>
@@ -25505,10 +25503,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="14"/>
@@ -25539,10 +25537,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -25573,10 +25571,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -25607,10 +25605,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -25641,10 +25639,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -31849,16 +31847,16 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -31888,7 +31886,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="14"/>
@@ -31919,7 +31917,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="14"/>
@@ -31950,7 +31948,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="14"/>
@@ -31981,7 +31979,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="14"/>
@@ -32012,10 +32010,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -32045,10 +32043,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -32078,10 +32076,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -32111,10 +32109,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -32144,10 +32142,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -32177,10 +32175,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -32210,10 +32208,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -32243,10 +32241,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -38241,16 +38239,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -38275,14 +38273,14 @@
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -38307,14 +38305,14 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="14"/>
@@ -38339,7 +38337,7 @@
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -38369,14 +38367,14 @@
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="14"/>
